--- a/ResultadoEleicoesDistritos/PORTALEGRE_PORTALEGRE.xlsx
+++ b/ResultadoEleicoesDistritos/PORTALEGRE_PORTALEGRE.xlsx
@@ -597,64 +597,64 @@
         <v>5912</v>
       </c>
       <c r="H2" t="n">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="I2" t="n">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="J2" t="n">
-        <v>2415</v>
+        <v>2427</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L2" t="n">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="M2" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N2" t="n">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S2" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="T2" t="n">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="U2" t="n">
         <v>23</v>
       </c>
       <c r="V2" t="n">
-        <v>3854</v>
+        <v>3732</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>3822</v>
+        <v>3824</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
